--- a/biology/Médecine/Johann_Ludwig_Hannemann/Johann_Ludwig_Hannemann.xlsx
+++ b/biology/Médecine/Johann_Ludwig_Hannemann/Johann_Ludwig_Hannemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Ludwig Hannemann (né le 25 octobre 1640 à Amsterdam – mort le 25 octobre 1724 à Kiel) est un professeur de médecine allemand. Il est surtout connu pour avoir été un opposant à l'idée de la circulation du sang. 
 Il a étudié la chimie du phosphore, de l'or et de l'hématite et a écrit des articles sur la métallurgie, botanique, théologie ainsi que divers sujets médicaux. Son enseignement est influencé par les travaux de Claude Galien, Hippocrate et Aristote.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1675, il devient professeur à l'université Christian Albrecht de Kiel. Il y a notamment été le directeur de thèse de Georg Gottlob Richter.
 En 1680, il devient membre de la Leopoldina.
